--- a/medicine/Handicap/Pro_Infirmis/Pro_Infirmis.xlsx
+++ b/medicine/Handicap/Pro_Infirmis/Pro_Infirmis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pro Infirmis est la plus grande organisation suisse active dans le domaine du handicap[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pro Infirmis est la plus grande organisation suisse active dans le domaine du handicap.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association Pro Infirmis est créée en 1920[2], sous le nom d'Association suisse en faveur des anormaux, par plusieurs associations s'occupant de personnes handicapées physiques ou mentales. Elle adopte le nom d'Association suisse Pro Infirmis en 1946, puis celui de en Pro Infirmis en 2000[3].
-Elle édite une revue, Pro Infirmis, depuis 1942[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association Pro Infirmis est créée en 1920, sous le nom d'Association suisse en faveur des anormaux, par plusieurs associations s'occupant de personnes handicapées physiques ou mentales. Elle adopte le nom d'Association suisse Pro Infirmis en 1946, puis celui de en Pro Infirmis en 2000.
+Elle édite une revue, Pro Infirmis, depuis 1942.
 </t>
         </is>
       </c>
